--- a/src/test/resources/TestCaseData/ManualTestCases.xlsx
+++ b/src/test/resources/TestCaseData/ManualTestCases.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1786,74 +1802,929 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2043,24 +2914,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C293"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.5"/>
-    <col customWidth="1" min="3" max="3" width="83.0"/>
+    <col min="1" max="1" width="34.5047619047619" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2080,7 +2955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2089,7 +2964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -2098,7 +2973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -2107,7 +2982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -2116,7 +2991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -2125,7 +3000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -2134,7 +3009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -2143,7 +3018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -2152,7 +3027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
@@ -2161,7 +3036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>23</v>
@@ -2170,7 +3045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2179,7 +3054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -2188,7 +3063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -2197,7 +3072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>31</v>
@@ -2206,7 +3081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>33</v>
@@ -2215,7 +3090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -2224,7 +3099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>37</v>
@@ -2233,7 +3108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -2242,7 +3117,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>41</v>
@@ -2251,7 +3126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>43</v>
@@ -2260,7 +3135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>45</v>
@@ -2269,7 +3144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -2280,7 +3155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
@@ -2291,8 +3166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2"/>
+    <row r="26" customHeight="1" spans="2:3">
       <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
@@ -2300,7 +3174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -2309,7 +3183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -2318,7 +3192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -2327,7 +3201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>61</v>
@@ -2336,7 +3210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>63</v>
@@ -2345,7 +3219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>65</v>
@@ -2354,7 +3228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>67</v>
@@ -2363,7 +3237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>69</v>
@@ -2372,7 +3246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>71</v>
@@ -2381,7 +3255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customHeight="1" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>73</v>
@@ -2390,7 +3264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>75</v>
@@ -2399,7 +3273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customHeight="1" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>77</v>
@@ -2408,7 +3282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customHeight="1" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
@@ -2417,7 +3291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customHeight="1" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>81</v>
@@ -2426,7 +3300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customHeight="1" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>83</v>
@@ -2435,7 +3309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>85</v>
@@ -2444,7 +3318,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customHeight="1" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
         <v>87</v>
@@ -2453,7 +3327,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customHeight="1" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
         <v>89</v>
@@ -2462,7 +3336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customHeight="1" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>91</v>
@@ -2471,7 +3345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customHeight="1" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>93</v>
@@ -2480,7 +3354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customHeight="1" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
         <v>95</v>
@@ -2489,7 +3363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customHeight="1" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
         <v>97</v>
@@ -2498,7 +3372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customHeight="1" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
         <v>99</v>
@@ -2507,7 +3381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>101</v>
@@ -2516,7 +3390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customHeight="1" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
         <v>103</v>
@@ -2525,7 +3399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customHeight="1" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
         <v>105</v>
@@ -2534,7 +3408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customHeight="1" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
         <v>107</v>
@@ -2543,7 +3417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customHeight="1" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
         <v>109</v>
@@ -2552,7 +3426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customHeight="1" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
         <v>111</v>
@@ -2561,7 +3435,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customHeight="1" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
         <v>113</v>
@@ -2570,7 +3444,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customHeight="1" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
         <v>115</v>
@@ -2579,7 +3453,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customHeight="1" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
         <v>117</v>
@@ -2588,7 +3462,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customHeight="1" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
         <v>119</v>
@@ -2597,7 +3471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customHeight="1" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
         <v>121</v>
@@ -2606,7 +3480,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customHeight="1" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
         <v>123</v>
@@ -2615,7 +3489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customHeight="1" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>125</v>
@@ -2624,7 +3498,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customHeight="1" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>127</v>
@@ -2633,7 +3507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customHeight="1" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
         <v>129</v>
@@ -2642,7 +3516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customHeight="1" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
         <v>131</v>
@@ -2651,7 +3525,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
         <v>133</v>
@@ -2660,7 +3534,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customHeight="1" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
         <v>135</v>
@@ -2669,7 +3543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customHeight="1" spans="1:3">
       <c r="A68" s="2"/>
       <c r="B68" s="3" t="s">
         <v>137</v>
@@ -2678,7 +3552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customHeight="1" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
         <v>139</v>
@@ -2687,7 +3561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customHeight="1" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
         <v>141</v>
@@ -2696,7 +3570,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customHeight="1" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
         <v>143</v>
@@ -2705,7 +3579,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customHeight="1" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
         <v>145</v>
@@ -2714,7 +3588,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customHeight="1" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
         <v>147</v>
@@ -2723,7 +3597,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customHeight="1" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
         <v>149</v>
@@ -2732,7 +3606,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customHeight="1" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
         <v>151</v>
@@ -2741,7 +3615,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customHeight="1" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
         <v>153</v>
@@ -2750,7 +3624,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customHeight="1" spans="1:3">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
         <v>155</v>
@@ -2759,7 +3633,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customHeight="1" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
         <v>157</v>
@@ -2768,7 +3642,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customHeight="1" spans="1:3">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
         <v>159</v>
@@ -2777,7 +3651,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customHeight="1" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
         <v>161</v>
@@ -2786,7 +3660,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customHeight="1" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
         <v>163</v>
@@ -2795,7 +3669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customHeight="1" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82" s="3" t="s">
         <v>165</v>
@@ -2804,7 +3678,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customHeight="1" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="s">
         <v>167</v>
@@ -2813,7 +3687,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customHeight="1" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
         <v>169</v>
@@ -2822,7 +3696,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customHeight="1" spans="1:3">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
         <v>171</v>
@@ -2831,7 +3705,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customHeight="1" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
         <v>173</v>
@@ -2840,7 +3714,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customHeight="1" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
         <v>175</v>
@@ -2849,7 +3723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customHeight="1" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
         <v>177</v>
@@ -2858,7 +3732,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
         <v>179</v>
@@ -2867,7 +3741,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customHeight="1" spans="1:3">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
         <v>181</v>
@@ -2876,7 +3750,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customHeight="1" spans="1:3">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
         <v>183</v>
@@ -2885,7 +3759,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customHeight="1" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
         <v>185</v>
@@ -2894,7 +3768,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customHeight="1" spans="1:3">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
         <v>187</v>
@@ -2903,7 +3777,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customHeight="1" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
         <v>189</v>
@@ -2912,7 +3786,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
         <v>191</v>
@@ -2921,7 +3795,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customHeight="1" spans="1:3">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
         <v>193</v>
@@ -2930,7 +3804,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customHeight="1" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
         <v>195</v>
@@ -2939,7 +3813,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customHeight="1" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
         <v>197</v>
@@ -2948,7 +3822,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customHeight="1" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
         <v>199</v>
@@ -2957,7 +3831,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customHeight="1" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
         <v>201</v>
@@ -2966,7 +3840,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
         <v>203</v>
@@ -2975,7 +3849,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
         <v>205</v>
@@ -2984,7 +3858,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customHeight="1" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
         <v>207</v>
@@ -2993,7 +3867,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customHeight="1" spans="1:3">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
         <v>209</v>
@@ -3002,7 +3876,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customHeight="1" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
         <v>211</v>
@@ -3011,7 +3885,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customHeight="1" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="3" t="s">
         <v>213</v>
@@ -3020,7 +3894,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customHeight="1" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
         <v>215</v>
@@ -3029,7 +3903,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customHeight="1" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
         <v>217</v>
@@ -3038,7 +3912,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customHeight="1" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
         <v>219</v>
@@ -3047,7 +3921,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customHeight="1" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
         <v>221</v>
@@ -3056,7 +3930,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customHeight="1" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
         <v>223</v>
@@ -3065,7 +3939,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customHeight="1" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
         <v>225</v>
@@ -3074,7 +3948,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
         <v>227</v>
@@ -3083,7 +3957,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customHeight="1" spans="1:3">
       <c r="A114" s="2"/>
       <c r="B114" s="3" t="s">
         <v>229</v>
@@ -3092,7 +3966,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="s">
         <v>231</v>
@@ -3101,7 +3975,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customHeight="1" spans="1:3">
       <c r="A116" s="2"/>
       <c r="B116" s="3" t="s">
         <v>233</v>
@@ -3110,7 +3984,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customHeight="1" spans="1:3">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
         <v>235</v>
@@ -3119,7 +3993,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
         <v>237</v>
@@ -3128,7 +4002,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customHeight="1" spans="1:3">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="s">
         <v>239</v>
@@ -3137,7 +4011,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customHeight="1" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120" s="3" t="s">
         <v>241</v>
@@ -3146,7 +4020,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customHeight="1" spans="1:3">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
         <v>243</v>
@@ -3155,7 +4029,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customHeight="1" spans="1:3">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
         <v>245</v>
@@ -3164,7 +4038,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customHeight="1" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
         <v>247</v>
@@ -3173,7 +4047,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customHeight="1" spans="1:3">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
         <v>249</v>
@@ -3182,7 +4056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customHeight="1" spans="1:3">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
         <v>251</v>
@@ -3191,7 +4065,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
         <v>253</v>
@@ -3200,7 +4074,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customHeight="1" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
         <v>255</v>
@@ -3209,7 +4083,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customHeight="1" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128" s="3" t="s">
         <v>257</v>
@@ -3218,7 +4092,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" customHeight="1" spans="1:3">
       <c r="A129" s="2"/>
       <c r="B129" s="3" t="s">
         <v>259</v>
@@ -3227,7 +4101,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customHeight="1" spans="1:3">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
         <v>261</v>
@@ -3236,7 +4110,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" customHeight="1" spans="1:3">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
         <v>263</v>
@@ -3245,7 +4119,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customHeight="1" spans="1:3">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
         <v>265</v>
@@ -3254,7 +4128,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" customHeight="1" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
         <v>267</v>
@@ -3263,7 +4137,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customHeight="1" spans="1:3">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
         <v>269</v>
@@ -3272,7 +4146,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" customHeight="1" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
         <v>271</v>
@@ -3281,7 +4155,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" customHeight="1" spans="1:3">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
         <v>273</v>
@@ -3290,7 +4164,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" customHeight="1" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
         <v>275</v>
@@ -3299,7 +4173,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" customHeight="1" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
         <v>277</v>
@@ -3308,7 +4182,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" customHeight="1" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
         <v>279</v>
@@ -3317,7 +4191,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" customHeight="1" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
         <v>281</v>
@@ -3326,7 +4200,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" customHeight="1" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
         <v>283</v>
@@ -3335,7 +4209,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" customHeight="1" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
         <v>285</v>
@@ -3344,7 +4218,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" customHeight="1" spans="1:3">
       <c r="A143" s="2"/>
       <c r="B143" s="3" t="s">
         <v>287</v>
@@ -3353,7 +4227,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" customHeight="1" spans="1:3">
       <c r="A144" s="2"/>
       <c r="B144" s="3" t="s">
         <v>289</v>
@@ -3362,7 +4236,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" customHeight="1" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" s="3" t="s">
         <v>291</v>
@@ -3371,7 +4245,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" customHeight="1" spans="1:3">
       <c r="A146" s="2"/>
       <c r="B146" s="3" t="s">
         <v>293</v>
@@ -3380,7 +4254,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" customHeight="1" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
         <v>295</v>
@@ -3389,7 +4263,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" customHeight="1" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
         <v>297</v>
@@ -3398,7 +4272,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" customHeight="1" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149" s="3" t="s">
         <v>299</v>
@@ -3407,7 +4281,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" customHeight="1" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150" s="3" t="s">
         <v>301</v>
@@ -3416,7 +4290,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" customHeight="1" spans="1:3">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
         <v>303</v>
@@ -3425,7 +4299,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" customHeight="1" spans="1:3">
       <c r="A152" s="2"/>
       <c r="B152" s="3" t="s">
         <v>305</v>
@@ -3434,7 +4308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" customHeight="1" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153" s="3" t="s">
         <v>307</v>
@@ -3443,7 +4317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" customHeight="1" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
         <v>309</v>
@@ -3452,7 +4326,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" customHeight="1" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
         <v>311</v>
@@ -3461,7 +4335,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" customHeight="1" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="3" t="s">
         <v>313</v>
@@ -3470,7 +4344,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" customHeight="1" spans="1:3">
       <c r="A157" s="2"/>
       <c r="B157" s="3" t="s">
         <v>315</v>
@@ -3479,7 +4353,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" customHeight="1" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158" s="3" t="s">
         <v>317</v>
@@ -3488,7 +4362,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" customHeight="1" spans="1:3">
       <c r="A159" s="2"/>
       <c r="B159" s="3" t="s">
         <v>319</v>
@@ -3497,7 +4371,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" customHeight="1" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160" s="3" t="s">
         <v>321</v>
@@ -3506,7 +4380,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" customHeight="1" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="3" t="s">
         <v>323</v>
@@ -3515,7 +4389,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" customHeight="1" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
         <v>325</v>
@@ -3524,7 +4398,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" customHeight="1" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="3" t="s">
         <v>327</v>
@@ -3533,7 +4407,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" customHeight="1" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="3" t="s">
         <v>329</v>
@@ -3542,7 +4416,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" customHeight="1" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
         <v>331</v>
@@ -3551,7 +4425,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" customHeight="1" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
         <v>333</v>
@@ -3560,7 +4434,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" customHeight="1" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
         <v>335</v>
@@ -3569,7 +4443,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" customHeight="1" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
         <v>337</v>
@@ -3578,7 +4452,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" customHeight="1" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
         <v>339</v>
@@ -3587,7 +4461,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" customHeight="1" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
         <v>341</v>
@@ -3596,7 +4470,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" customHeight="1" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
         <v>343</v>
@@ -3605,7 +4479,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" customHeight="1" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
         <v>345</v>
@@ -3614,7 +4488,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" customHeight="1" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
         <v>347</v>
@@ -3623,7 +4497,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" customHeight="1" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
         <v>349</v>
@@ -3632,7 +4506,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" customHeight="1" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
         <v>351</v>
@@ -3641,7 +4515,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" customHeight="1" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
         <v>353</v>
@@ -3650,7 +4524,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" customHeight="1" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
         <v>355</v>
@@ -3659,7 +4533,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" customHeight="1" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
         <v>357</v>
@@ -3668,7 +4542,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" customHeight="1" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
         <v>359</v>
@@ -3677,7 +4551,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" customHeight="1" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
         <v>361</v>
@@ -3686,7 +4560,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" customHeight="1" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
         <v>363</v>
@@ -3695,7 +4569,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" customHeight="1" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182" s="3" t="s">
         <v>365</v>
@@ -3704,7 +4578,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" customHeight="1" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="3" t="s">
         <v>367</v>
@@ -3713,7 +4587,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" customHeight="1" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
         <v>369</v>
@@ -3722,7 +4596,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" customHeight="1" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
         <v>371</v>
@@ -3731,7 +4605,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" customHeight="1" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
         <v>373</v>
@@ -3740,7 +4614,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" customHeight="1" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
         <v>375</v>
@@ -3749,7 +4623,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" customHeight="1" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
         <v>377</v>
@@ -3758,7 +4632,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" customHeight="1" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
         <v>379</v>
@@ -3767,7 +4641,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" customHeight="1" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
         <v>381</v>
@@ -3776,7 +4650,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" customHeight="1" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
         <v>383</v>
@@ -3785,7 +4659,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" customHeight="1" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
         <v>385</v>
@@ -3794,7 +4668,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" customHeight="1" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
         <v>387</v>
@@ -3803,7 +4677,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" customHeight="1" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="s">
         <v>389</v>
@@ -3812,7 +4686,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" customHeight="1" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195" s="3" t="s">
         <v>391</v>
@@ -3821,7 +4695,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" customHeight="1" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196" s="3" t="s">
         <v>393</v>
@@ -3830,7 +4704,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" customHeight="1" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="s">
         <v>395</v>
@@ -3839,7 +4713,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" customHeight="1" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="3" t="s">
         <v>397</v>
@@ -3848,7 +4722,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" customHeight="1" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>399</v>
@@ -3857,7 +4731,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" customHeight="1" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="s">
         <v>401</v>
@@ -3866,7 +4740,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" customHeight="1" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
         <v>403</v>
@@ -3875,7 +4749,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" customHeight="1" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
         <v>405</v>
@@ -3884,7 +4758,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" customHeight="1" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="3" t="s">
         <v>407</v>
@@ -3893,7 +4767,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" customHeight="1" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="3" t="s">
         <v>409</v>
@@ -3902,7 +4776,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" customHeight="1" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="3" t="s">
         <v>411</v>
@@ -3911,7 +4785,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" customHeight="1" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="3" t="s">
         <v>413</v>
@@ -3920,7 +4794,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" customHeight="1" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="3" t="s">
         <v>415</v>
@@ -3929,7 +4803,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" customHeight="1" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="3" t="s">
         <v>417</v>
@@ -3938,7 +4812,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" customHeight="1" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="3" t="s">
         <v>419</v>
@@ -3947,7 +4821,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" customHeight="1" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="3" t="s">
         <v>421</v>
@@ -3956,7 +4830,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" customHeight="1" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211" s="3" t="s">
         <v>423</v>
@@ -3965,7 +4839,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" customHeight="1" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="3" t="s">
         <v>425</v>
@@ -3974,7 +4848,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" customHeight="1" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213" s="3" t="s">
         <v>427</v>
@@ -3983,7 +4857,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" customHeight="1" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="s">
         <v>429</v>
@@ -3992,7 +4866,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" customHeight="1" spans="1:3">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="s">
         <v>431</v>
@@ -4001,7 +4875,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" customHeight="1" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216" s="3" t="s">
         <v>433</v>
@@ -4010,7 +4884,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" customHeight="1" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217" s="3" t="s">
         <v>435</v>
@@ -4019,7 +4893,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" customHeight="1" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218" s="3" t="s">
         <v>437</v>
@@ -4028,7 +4902,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" customHeight="1" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219" s="3" t="s">
         <v>439</v>
@@ -4037,7 +4911,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" customHeight="1" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220" s="3" t="s">
         <v>441</v>
@@ -4046,7 +4920,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" customHeight="1" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221" s="3" t="s">
         <v>443</v>
@@ -4055,7 +4929,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" customHeight="1" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222" s="3" t="s">
         <v>445</v>
@@ -4064,7 +4938,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" customHeight="1" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" s="3" t="s">
         <v>447</v>
@@ -4073,7 +4947,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" customHeight="1" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="3" t="s">
         <v>449</v>
@@ -4082,7 +4956,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" customHeight="1" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="3" t="s">
         <v>451</v>
@@ -4091,7 +4965,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" customHeight="1" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="3" t="s">
         <v>453</v>
@@ -4100,7 +4974,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" customHeight="1" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="3" t="s">
         <v>455</v>
@@ -4109,7 +4983,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" customHeight="1" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228" s="3" t="s">
         <v>457</v>
@@ -4118,7 +4992,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" customHeight="1" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229" s="3" t="s">
         <v>459</v>
@@ -4127,7 +5001,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" customHeight="1" spans="1:3">
       <c r="A230" s="2"/>
       <c r="B230" s="3" t="s">
         <v>461</v>
@@ -4136,7 +5010,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" customHeight="1" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231" s="3" t="s">
         <v>463</v>
@@ -4145,7 +5019,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" customHeight="1" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232" s="3" t="s">
         <v>465</v>
@@ -4154,7 +5028,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" customHeight="1" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233" s="3" t="s">
         <v>467</v>
@@ -4163,7 +5037,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" customHeight="1" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="3" t="s">
         <v>469</v>
@@ -4172,7 +5046,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" customHeight="1" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235" s="3" t="s">
         <v>471</v>
@@ -4181,7 +5055,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" customHeight="1" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="3" t="s">
         <v>473</v>
@@ -4190,7 +5064,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" customHeight="1" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237" s="3" t="s">
         <v>475</v>
@@ -4199,7 +5073,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" customHeight="1" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="3" t="s">
         <v>477</v>
@@ -4208,7 +5082,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" customHeight="1" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239" s="3" t="s">
         <v>479</v>
@@ -4217,7 +5091,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" customHeight="1" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="3" t="s">
         <v>481</v>
@@ -4226,7 +5100,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" customHeight="1" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="3" t="s">
         <v>483</v>
@@ -4235,7 +5109,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" customHeight="1" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="3" t="s">
         <v>485</v>
@@ -4244,7 +5118,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" customHeight="1" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243" s="3" t="s">
         <v>487</v>
@@ -4253,7 +5127,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" customHeight="1" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244" s="3" t="s">
         <v>489</v>
@@ -4262,7 +5136,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" customHeight="1" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245" s="3" t="s">
         <v>491</v>
@@ -4271,7 +5145,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" customHeight="1" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246" s="3" t="s">
         <v>493</v>
@@ -4280,7 +5154,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" customHeight="1" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247" s="3" t="s">
         <v>495</v>
@@ -4289,7 +5163,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" customHeight="1" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="s">
         <v>497</v>
@@ -4298,7 +5172,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" customHeight="1" spans="1:3">
       <c r="A249" s="2"/>
       <c r="B249" s="3" t="s">
         <v>499</v>
@@ -4307,7 +5181,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" customHeight="1" spans="1:3">
       <c r="A250" s="2"/>
       <c r="B250" s="3" t="s">
         <v>501</v>
@@ -4316,7 +5190,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" customHeight="1" spans="1:3">
       <c r="A251" s="2"/>
       <c r="B251" s="3" t="s">
         <v>503</v>
@@ -4325,7 +5199,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" customHeight="1" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="3" t="s">
         <v>505</v>
@@ -4334,7 +5208,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" customHeight="1" spans="1:3">
       <c r="A253" s="2"/>
       <c r="B253" s="3" t="s">
         <v>507</v>
@@ -4343,7 +5217,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" customHeight="1" spans="1:3">
       <c r="A254" s="2"/>
       <c r="B254" s="3" t="s">
         <v>509</v>
@@ -4352,7 +5226,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" customHeight="1" spans="1:3">
       <c r="A255" s="2"/>
       <c r="B255" s="3" t="s">
         <v>511</v>
@@ -4361,7 +5235,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" customHeight="1" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="3" t="s">
         <v>513</v>
@@ -4370,7 +5244,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" customHeight="1" spans="1:3">
       <c r="A257" s="2"/>
       <c r="B257" s="3" t="s">
         <v>515</v>
@@ -4379,7 +5253,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" customHeight="1" spans="1:3">
       <c r="A258" s="2"/>
       <c r="B258" s="3" t="s">
         <v>517</v>
@@ -4388,7 +5262,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" customHeight="1" spans="1:3">
       <c r="A259" s="2"/>
       <c r="B259" s="3" t="s">
         <v>519</v>
@@ -4397,7 +5271,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" customHeight="1" spans="1:3">
       <c r="A260" s="2"/>
       <c r="B260" s="3" t="s">
         <v>521</v>
@@ -4406,7 +5280,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" customHeight="1" spans="1:3">
       <c r="A261" s="2"/>
       <c r="B261" s="3" t="s">
         <v>523</v>
@@ -4415,7 +5289,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" customHeight="1" spans="1:3">
       <c r="A262" s="2"/>
       <c r="B262" s="3" t="s">
         <v>525</v>
@@ -4424,7 +5298,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" customHeight="1" spans="1:3">
       <c r="A263" s="2"/>
       <c r="B263" s="3" t="s">
         <v>527</v>
@@ -4433,7 +5307,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" customHeight="1" spans="1:3">
       <c r="A264" s="2"/>
       <c r="B264" s="3" t="s">
         <v>529</v>
@@ -4442,7 +5316,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" customHeight="1" spans="1:3">
       <c r="A265" s="2"/>
       <c r="B265" s="3" t="s">
         <v>531</v>
@@ -4451,7 +5325,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" customHeight="1" spans="1:3">
       <c r="A266" s="2"/>
       <c r="B266" s="3" t="s">
         <v>533</v>
@@ -4460,7 +5334,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" customHeight="1" spans="1:3">
       <c r="A267" s="2"/>
       <c r="B267" s="3" t="s">
         <v>535</v>
@@ -4469,7 +5343,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" customHeight="1" spans="1:3">
       <c r="A268" s="2"/>
       <c r="B268" s="3" t="s">
         <v>537</v>
@@ -4478,7 +5352,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" customHeight="1" spans="1:3">
       <c r="A269" s="2"/>
       <c r="B269" s="3" t="s">
         <v>539</v>
@@ -4487,7 +5361,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" customHeight="1" spans="1:3">
       <c r="A270" s="2"/>
       <c r="B270" s="3" t="s">
         <v>541</v>
@@ -4496,7 +5370,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" customHeight="1" spans="1:3">
       <c r="A271" s="2"/>
       <c r="B271" s="3" t="s">
         <v>543</v>
@@ -4505,7 +5379,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" customHeight="1" spans="1:3">
       <c r="A272" s="2"/>
       <c r="B272" s="3" t="s">
         <v>545</v>
@@ -4514,7 +5388,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" customHeight="1" spans="1:3">
       <c r="A273" s="2"/>
       <c r="B273" s="3" t="s">
         <v>547</v>
@@ -4523,7 +5397,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" customHeight="1" spans="1:3">
       <c r="A274" s="2"/>
       <c r="B274" s="3" t="s">
         <v>549</v>
@@ -4532,7 +5406,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" customHeight="1" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" s="3" t="s">
         <v>551</v>
@@ -4541,7 +5415,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" customHeight="1" spans="1:3">
       <c r="A276" s="2"/>
       <c r="B276" s="3" t="s">
         <v>553</v>
@@ -4550,7 +5424,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" customHeight="1" spans="1:3">
       <c r="A277" s="2"/>
       <c r="B277" s="3" t="s">
         <v>555</v>
@@ -4559,7 +5433,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" customHeight="1" spans="1:3">
       <c r="A278" s="2"/>
       <c r="B278" s="3" t="s">
         <v>557</v>
@@ -4568,7 +5442,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" customHeight="1" spans="1:3">
       <c r="A279" s="2"/>
       <c r="B279" s="3" t="s">
         <v>559</v>
@@ -4577,7 +5451,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" customHeight="1" spans="1:3">
       <c r="A280" s="2"/>
       <c r="B280" s="3" t="s">
         <v>561</v>
@@ -4586,7 +5460,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" customHeight="1" spans="1:3">
       <c r="A281" s="2"/>
       <c r="B281" s="3" t="s">
         <v>563</v>
@@ -4595,7 +5469,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" customHeight="1" spans="1:3">
       <c r="A282" s="2"/>
       <c r="B282" s="3" t="s">
         <v>565</v>
@@ -4604,7 +5478,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" customHeight="1" spans="1:3">
       <c r="A283" s="2"/>
       <c r="B283" s="3" t="s">
         <v>567</v>
@@ -4613,7 +5487,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" customHeight="1" spans="1:3">
       <c r="A284" s="2"/>
       <c r="B284" s="3" t="s">
         <v>569</v>
@@ -4622,7 +5496,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" customHeight="1" spans="1:3">
       <c r="A285" s="2"/>
       <c r="B285" s="3" t="s">
         <v>571</v>
@@ -4631,7 +5505,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" customHeight="1" spans="1:3">
       <c r="A286" s="2"/>
       <c r="B286" s="3" t="s">
         <v>573</v>
@@ -4640,7 +5514,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" customHeight="1" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" s="3" t="s">
         <v>575</v>
@@ -4649,7 +5523,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" customHeight="1" spans="1:3">
       <c r="A288" s="2"/>
       <c r="B288" s="3" t="s">
         <v>577</v>
@@ -4658,7 +5532,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" customHeight="1" spans="1:3">
       <c r="A289" s="2"/>
       <c r="B289" s="3" t="s">
         <v>579</v>
@@ -4667,7 +5541,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" customHeight="1" spans="1:3">
       <c r="A290" s="2"/>
       <c r="B290" s="3" t="s">
         <v>581</v>
@@ -4676,7 +5550,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" customHeight="1" spans="1:3">
       <c r="A291" s="2"/>
       <c r="B291" s="3" t="s">
         <v>583</v>
@@ -4685,7 +5559,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" customHeight="1" spans="1:3">
       <c r="A292" s="2"/>
       <c r="B292" s="3" t="s">
         <v>585</v>
@@ -4694,7 +5568,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" customHeight="1" spans="1:3">
       <c r="A293" s="2"/>
       <c r="B293" s="3" t="s">
         <v>587</v>
@@ -4704,6 +5578,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestCaseData/ManualTestCases.xlsx
+++ b/src/test/resources/TestCaseData/ManualTestCases.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TruvideoWeb_Playwright\src\test\resources\TestCaseData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="595">
   <si>
     <t>Automation Test Name</t>
   </si>
@@ -1797,19 +1802,31 @@
   </si>
   <si>
     <t>Web App-&gt; NEW UI-&gt; Verify functionality of "Send trade in link" button options under OPERATIONS on SO details page</t>
+  </si>
+  <si>
+    <t>verify_SearchFilter_OnAdvanceSearchWindow</t>
+  </si>
+  <si>
+    <t>verifyNewTechnicianUser</t>
+  </si>
+  <si>
+    <t>verifyRequiredFieldinAddUser</t>
+  </si>
+  <si>
+    <t>updatePasswordNewUser</t>
+  </si>
+  <si>
+    <t>verifyselectActionsonUser</t>
+  </si>
+  <si>
+    <t>verifyUserStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1836,353 +1853,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2190,251 +1870,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2449,89 +1887,158 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2542,7 +2049,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2570,154 +2077,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2915,27 +2308,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.5047619047619" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2946,8 +2340,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>589</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,8 +2351,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2964,7 +2362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -2973,8 +2371,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>590</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2982,8 +2382,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +2393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -3000,7 +2402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -3009,7 +2411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -3018,7 +2420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -3027,7 +2429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
@@ -3036,7 +2438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>23</v>
@@ -3045,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3054,7 +2456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -3063,7 +2465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -3072,7 +2474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>31</v>
@@ -3081,7 +2483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>33</v>
@@ -3090,7 +2492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -3099,7 +2501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>37</v>
@@ -3108,7 +2510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -3117,7 +2519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>41</v>
@@ -3126,7 +2528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>43</v>
@@ -3135,7 +2537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>45</v>
@@ -3144,7 +2546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -3155,7 +2557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
@@ -3166,7 +2568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="2:3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
@@ -3174,7 +2576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -3183,7 +2585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -3192,7 +2594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -3201,7 +2603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>61</v>
@@ -3210,7 +2612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>63</v>
@@ -3219,7 +2621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>65</v>
@@ -3228,7 +2630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>67</v>
@@ -3237,7 +2639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>69</v>
@@ -3246,7 +2648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>71</v>
@@ -3255,7 +2657,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>73</v>
@@ -3264,7 +2666,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>75</v>
@@ -3273,7 +2675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>77</v>
@@ -3282,7 +2684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
@@ -3291,7 +2693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>81</v>
@@ -3300,7 +2702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>83</v>
@@ -3309,7 +2711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>85</v>
@@ -3318,8 +2720,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:3">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
@@ -3327,7 +2731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
         <v>89</v>
@@ -3336,7 +2740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>91</v>
@@ -3345,7 +2749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>93</v>
@@ -3354,7 +2758,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
         <v>95</v>
@@ -3363,7 +2767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
         <v>97</v>
@@ -3372,7 +2776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
         <v>99</v>
@@ -3381,7 +2785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>101</v>
@@ -3390,7 +2794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
         <v>103</v>
@@ -3399,7 +2803,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
         <v>105</v>
@@ -3408,7 +2812,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:3">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
         <v>107</v>
@@ -3417,8 +2821,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:3">
-      <c r="A54" s="2"/>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
@@ -3426,7 +2832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:3">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
         <v>111</v>
@@ -3435,7 +2841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:3">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
         <v>113</v>
@@ -3444,7 +2850,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:3">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
         <v>115</v>
@@ -3453,7 +2859,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:3">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
         <v>117</v>
@@ -3462,7 +2868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:3">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
         <v>119</v>
@@ -3471,7 +2877,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:3">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
         <v>121</v>
@@ -3480,7 +2886,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:3">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
         <v>123</v>
@@ -3489,7 +2895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:3">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>125</v>
@@ -3498,7 +2904,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:3">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>127</v>
@@ -3507,7 +2913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:3">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
         <v>129</v>
@@ -3516,7 +2922,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:3">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
         <v>131</v>
@@ -3525,7 +2931,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:3">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
         <v>133</v>
@@ -3534,7 +2940,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:3">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
         <v>135</v>
@@ -3543,7 +2949,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="3" t="s">
         <v>137</v>
@@ -3552,7 +2958,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:3">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
         <v>139</v>
@@ -3561,8 +2967,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:3">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>593</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>141</v>
       </c>
@@ -3570,8 +2978,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:3">
-      <c r="A71" s="2"/>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
@@ -3579,7 +2989,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:3">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
         <v>145</v>
@@ -3588,7 +2998,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:3">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
         <v>147</v>
@@ -3597,7 +3007,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:3">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
         <v>149</v>
@@ -3606,7 +3016,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:3">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
         <v>151</v>
@@ -3615,7 +3025,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:3">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
         <v>153</v>
@@ -3624,7 +3034,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:3">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
         <v>155</v>
@@ -3633,7 +3043,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:3">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
         <v>157</v>
@@ -3642,7 +3052,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
         <v>159</v>
@@ -3651,7 +3061,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:3">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
         <v>161</v>
@@ -3660,8 +3070,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:3">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="B81" s="3" t="s">
         <v>163</v>
       </c>
@@ -3669,8 +3081,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:3">
-      <c r="A82" s="2"/>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>594</v>
+      </c>
       <c r="B82" s="3" t="s">
         <v>165</v>
       </c>
@@ -3678,7 +3092,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="s">
         <v>167</v>
@@ -3687,7 +3101,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
         <v>169</v>
@@ -3696,7 +3110,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
         <v>171</v>
@@ -3705,7 +3119,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
         <v>173</v>
@@ -3714,7 +3128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
         <v>175</v>
@@ -3723,7 +3137,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
         <v>177</v>
@@ -3732,7 +3146,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
         <v>179</v>
@@ -3741,7 +3155,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
         <v>181</v>
@@ -3750,7 +3164,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
         <v>183</v>
@@ -3759,7 +3173,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
         <v>185</v>
@@ -3768,7 +3182,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
         <v>187</v>
@@ -3777,7 +3191,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:3">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
         <v>189</v>
@@ -3786,7 +3200,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:3">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
         <v>191</v>
@@ -3795,7 +3209,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
         <v>193</v>
@@ -3804,7 +3218,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:3">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
         <v>195</v>
@@ -3813,7 +3227,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:3">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
         <v>197</v>
@@ -3822,7 +3236,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:3">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
         <v>199</v>
@@ -3831,7 +3245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:3">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
         <v>201</v>
@@ -3840,7 +3254,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:3">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
         <v>203</v>
@@ -3849,7 +3263,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:3">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
         <v>205</v>
@@ -3858,7 +3272,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:3">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
         <v>207</v>
@@ -3867,7 +3281,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:3">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
         <v>209</v>
@@ -3876,7 +3290,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:3">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
         <v>211</v>
@@ -3885,7 +3299,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:3">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="3" t="s">
         <v>213</v>
@@ -3894,7 +3308,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:3">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
         <v>215</v>
@@ -3903,7 +3317,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:3">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
         <v>217</v>
@@ -3912,7 +3326,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:3">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
         <v>219</v>
@@ -3921,7 +3335,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:3">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
         <v>221</v>
@@ -3930,7 +3344,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:3">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
         <v>223</v>
@@ -3939,7 +3353,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:3">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
         <v>225</v>
@@ -3948,7 +3362,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:3">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
         <v>227</v>
@@ -3957,7 +3371,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:3">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="3" t="s">
         <v>229</v>
@@ -3966,7 +3380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:3">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="s">
         <v>231</v>
@@ -3975,7 +3389,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:3">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="3" t="s">
         <v>233</v>
@@ -3984,7 +3398,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:3">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
         <v>235</v>
@@ -3993,7 +3407,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:3">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
         <v>237</v>
@@ -4002,7 +3416,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:3">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="s">
         <v>239</v>
@@ -4011,7 +3425,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:3">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="3" t="s">
         <v>241</v>
@@ -4020,7 +3434,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:3">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
         <v>243</v>
@@ -4029,7 +3443,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:3">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
         <v>245</v>
@@ -4038,7 +3452,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:3">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
         <v>247</v>
@@ -4047,7 +3461,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:3">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
         <v>249</v>
@@ -4056,7 +3470,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:3">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
         <v>251</v>
@@ -4065,7 +3479,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:3">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
         <v>253</v>
@@ -4074,7 +3488,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:3">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
         <v>255</v>
@@ -4083,7 +3497,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:3">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="3" t="s">
         <v>257</v>
@@ -4092,7 +3506,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:3">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="3" t="s">
         <v>259</v>
@@ -4101,7 +3515,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:3">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
         <v>261</v>
@@ -4110,7 +3524,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:3">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
         <v>263</v>
@@ -4119,7 +3533,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:3">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
         <v>265</v>
@@ -4128,7 +3542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:3">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
         <v>267</v>
@@ -4137,7 +3551,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:3">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
         <v>269</v>
@@ -4146,7 +3560,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:3">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
         <v>271</v>
@@ -4155,7 +3569,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:3">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
         <v>273</v>
@@ -4164,7 +3578,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:3">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
         <v>275</v>
@@ -4173,7 +3587,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:3">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
         <v>277</v>
@@ -4182,7 +3596,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:3">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
         <v>279</v>
@@ -4191,7 +3605,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:3">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
         <v>281</v>
@@ -4200,7 +3614,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:3">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
         <v>283</v>
@@ -4209,7 +3623,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:3">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
         <v>285</v>
@@ -4218,7 +3632,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:3">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="3" t="s">
         <v>287</v>
@@ -4227,7 +3641,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:3">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="3" t="s">
         <v>289</v>
@@ -4236,7 +3650,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:3">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="3" t="s">
         <v>291</v>
@@ -4245,7 +3659,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:3">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="3" t="s">
         <v>293</v>
@@ -4254,7 +3668,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:3">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
         <v>295</v>
@@ -4263,7 +3677,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:3">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
         <v>297</v>
@@ -4272,7 +3686,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:3">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="3" t="s">
         <v>299</v>
@@ -4281,7 +3695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:3">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="3" t="s">
         <v>301</v>
@@ -4290,7 +3704,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:3">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
         <v>303</v>
@@ -4299,7 +3713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:3">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="3" t="s">
         <v>305</v>
@@ -4308,7 +3722,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:3">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="3" t="s">
         <v>307</v>
@@ -4317,7 +3731,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:3">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
         <v>309</v>
@@ -4326,7 +3740,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:3">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
         <v>311</v>
@@ -4335,7 +3749,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:3">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="3" t="s">
         <v>313</v>
@@ -4344,7 +3758,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:3">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="3" t="s">
         <v>315</v>
@@ -4353,7 +3767,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:3">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="3" t="s">
         <v>317</v>
@@ -4362,7 +3776,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:3">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="3" t="s">
         <v>319</v>
@@ -4371,7 +3785,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:3">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="3" t="s">
         <v>321</v>
@@ -4380,7 +3794,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:3">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="3" t="s">
         <v>323</v>
@@ -4389,7 +3803,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:3">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
         <v>325</v>
@@ -4398,7 +3812,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:3">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="3" t="s">
         <v>327</v>
@@ -4407,7 +3821,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:3">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="3" t="s">
         <v>329</v>
@@ -4416,7 +3830,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:3">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
         <v>331</v>
@@ -4425,7 +3839,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:3">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
         <v>333</v>
@@ -4434,7 +3848,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:3">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
         <v>335</v>
@@ -4443,7 +3857,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:3">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
         <v>337</v>
@@ -4452,7 +3866,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:3">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
         <v>339</v>
@@ -4461,7 +3875,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="1:3">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
         <v>341</v>
@@ -4470,7 +3884,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:3">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
         <v>343</v>
@@ -4479,7 +3893,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:3">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
         <v>345</v>
@@ -4488,7 +3902,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:3">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
         <v>347</v>
@@ -4497,7 +3911,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:3">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
         <v>349</v>
@@ -4506,7 +3920,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:3">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
         <v>351</v>
@@ -4515,7 +3929,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:3">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
         <v>353</v>
@@ -4524,7 +3938,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:3">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
         <v>355</v>
@@ -4533,7 +3947,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:3">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
         <v>357</v>
@@ -4542,7 +3956,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:3">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
         <v>359</v>
@@ -4551,7 +3965,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:3">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
         <v>361</v>
@@ -4560,7 +3974,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:3">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
         <v>363</v>
@@ -4569,7 +3983,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:3">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="3" t="s">
         <v>365</v>
@@ -4578,7 +3992,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:3">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="3" t="s">
         <v>367</v>
@@ -4587,7 +4001,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:3">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
         <v>369</v>
@@ -4596,7 +4010,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:3">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
         <v>371</v>
@@ -4605,7 +4019,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:3">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
         <v>373</v>
@@ -4614,7 +4028,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:3">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
         <v>375</v>
@@ -4623,7 +4037,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:3">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
         <v>377</v>
@@ -4632,7 +4046,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:3">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
         <v>379</v>
@@ -4641,7 +4055,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:3">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
         <v>381</v>
@@ -4650,7 +4064,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:3">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
         <v>383</v>
@@ -4659,7 +4073,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:3">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
         <v>385</v>
@@ -4668,7 +4082,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:3">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
         <v>387</v>
@@ -4677,7 +4091,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:3">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="s">
         <v>389</v>
@@ -4686,7 +4100,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:3">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="3" t="s">
         <v>391</v>
@@ -4695,7 +4109,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:3">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="3" t="s">
         <v>393</v>
@@ -4704,7 +4118,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:3">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="s">
         <v>395</v>
@@ -4713,7 +4127,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:3">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="3" t="s">
         <v>397</v>
@@ -4722,7 +4136,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="199" customHeight="1" spans="1:3">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>399</v>
@@ -4731,7 +4145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:3">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="s">
         <v>401</v>
@@ -4740,7 +4154,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:3">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
         <v>403</v>
@@ -4749,7 +4163,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="1:3">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
         <v>405</v>
@@ -4758,7 +4172,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:3">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="3" t="s">
         <v>407</v>
@@ -4767,7 +4181,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="204" customHeight="1" spans="1:3">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="3" t="s">
         <v>409</v>
@@ -4776,7 +4190,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="205" customHeight="1" spans="1:3">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="3" t="s">
         <v>411</v>
@@ -4785,7 +4199,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206" customHeight="1" spans="1:3">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="3" t="s">
         <v>413</v>
@@ -4794,7 +4208,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="207" customHeight="1" spans="1:3">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="3" t="s">
         <v>415</v>
@@ -4803,7 +4217,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" customHeight="1" spans="1:3">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="3" t="s">
         <v>417</v>
@@ -4812,7 +4226,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="1:3">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="3" t="s">
         <v>419</v>
@@ -4821,7 +4235,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210" customHeight="1" spans="1:3">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="3" t="s">
         <v>421</v>
@@ -4830,7 +4244,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="211" customHeight="1" spans="1:3">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="3" t="s">
         <v>423</v>
@@ -4839,7 +4253,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" customHeight="1" spans="1:3">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="3" t="s">
         <v>425</v>
@@ -4848,7 +4262,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="213" customHeight="1" spans="1:3">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="3" t="s">
         <v>427</v>
@@ -4857,7 +4271,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="214" customHeight="1" spans="1:3">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="s">
         <v>429</v>
@@ -4866,7 +4280,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="215" customHeight="1" spans="1:3">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="s">
         <v>431</v>
@@ -4875,7 +4289,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:3">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="3" t="s">
         <v>433</v>
@@ -4884,7 +4298,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="1:3">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="3" t="s">
         <v>435</v>
@@ -4893,7 +4307,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="218" customHeight="1" spans="1:3">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="3" t="s">
         <v>437</v>
@@ -4902,7 +4316,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="219" customHeight="1" spans="1:3">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="3" t="s">
         <v>439</v>
@@ -4911,7 +4325,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="220" customHeight="1" spans="1:3">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="3" t="s">
         <v>441</v>
@@ -4920,7 +4334,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:3">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="3" t="s">
         <v>443</v>
@@ -4929,7 +4343,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="222" customHeight="1" spans="1:3">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="3" t="s">
         <v>445</v>
@@ -4938,7 +4352,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="223" customHeight="1" spans="1:3">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="3" t="s">
         <v>447</v>
@@ -4947,7 +4361,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:3">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="3" t="s">
         <v>449</v>
@@ -4956,7 +4370,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="225" customHeight="1" spans="1:3">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="3" t="s">
         <v>451</v>
@@ -4965,7 +4379,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="226" customHeight="1" spans="1:3">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="3" t="s">
         <v>453</v>
@@ -4974,7 +4388,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="1:3">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="3" t="s">
         <v>455</v>
@@ -4983,7 +4397,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:3">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="3" t="s">
         <v>457</v>
@@ -4992,7 +4406,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="229" customHeight="1" spans="1:3">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="3" t="s">
         <v>459</v>
@@ -5001,7 +4415,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="230" customHeight="1" spans="1:3">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="3" t="s">
         <v>461</v>
@@ -5010,7 +4424,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:3">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="3" t="s">
         <v>463</v>
@@ -5019,7 +4433,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:3">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="3" t="s">
         <v>465</v>
@@ -5028,7 +4442,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="1:3">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="3" t="s">
         <v>467</v>
@@ -5037,7 +4451,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:3">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="3" t="s">
         <v>469</v>
@@ -5046,7 +4460,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:3">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="3" t="s">
         <v>471</v>
@@ -5055,7 +4469,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="236" customHeight="1" spans="1:3">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="3" t="s">
         <v>473</v>
@@ -5064,7 +4478,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="237" customHeight="1" spans="1:3">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="3" t="s">
         <v>475</v>
@@ -5073,7 +4487,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:3">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="3" t="s">
         <v>477</v>
@@ -5082,7 +4496,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="239" customHeight="1" spans="1:3">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="3" t="s">
         <v>479</v>
@@ -5091,7 +4505,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="240" customHeight="1" spans="1:3">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="3" t="s">
         <v>481</v>
@@ -5100,7 +4514,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="241" customHeight="1" spans="1:3">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="3" t="s">
         <v>483</v>
@@ -5109,7 +4523,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="242" customHeight="1" spans="1:3">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="3" t="s">
         <v>485</v>
@@ -5118,7 +4532,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="243" customHeight="1" spans="1:3">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="3" t="s">
         <v>487</v>
@@ -5127,7 +4541,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="1:3">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="3" t="s">
         <v>489</v>
@@ -5136,7 +4550,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="245" customHeight="1" spans="1:3">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="3" t="s">
         <v>491</v>
@@ -5145,7 +4559,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" customHeight="1" spans="1:3">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="3" t="s">
         <v>493</v>
@@ -5154,7 +4568,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:3">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="3" t="s">
         <v>495</v>
@@ -5163,7 +4577,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="1:3">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="s">
         <v>497</v>
@@ -5172,7 +4586,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="249" customHeight="1" spans="1:3">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="3" t="s">
         <v>499</v>
@@ -5181,7 +4595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="250" customHeight="1" spans="1:3">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="3" t="s">
         <v>501</v>
@@ -5190,7 +4604,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:3">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="3" t="s">
         <v>503</v>
@@ -5199,7 +4613,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="252" customHeight="1" spans="1:3">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="3" t="s">
         <v>505</v>
@@ -5208,7 +4622,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:3">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="3" t="s">
         <v>507</v>
@@ -5217,7 +4631,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="254" customHeight="1" spans="1:3">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="3" t="s">
         <v>509</v>
@@ -5226,7 +4640,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="255" customHeight="1" spans="1:3">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="3" t="s">
         <v>511</v>
@@ -5235,7 +4649,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="256" customHeight="1" spans="1:3">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="3" t="s">
         <v>513</v>
@@ -5244,7 +4658,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="257" customHeight="1" spans="1:3">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="3" t="s">
         <v>515</v>
@@ -5253,7 +4667,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="258" customHeight="1" spans="1:3">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="3" t="s">
         <v>517</v>
@@ -5262,7 +4676,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="259" customHeight="1" spans="1:3">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="3" t="s">
         <v>519</v>
@@ -5271,7 +4685,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="1:3">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="3" t="s">
         <v>521</v>
@@ -5280,7 +4694,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:3">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="3" t="s">
         <v>523</v>
@@ -5289,7 +4703,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="1:3">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="3" t="s">
         <v>525</v>
@@ -5298,7 +4712,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="263" customHeight="1" spans="1:3">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="3" t="s">
         <v>527</v>
@@ -5307,7 +4721,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="264" customHeight="1" spans="1:3">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="3" t="s">
         <v>529</v>
@@ -5316,7 +4730,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="265" customHeight="1" spans="1:3">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="3" t="s">
         <v>531</v>
@@ -5325,7 +4739,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="266" customHeight="1" spans="1:3">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="3" t="s">
         <v>533</v>
@@ -5334,7 +4748,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="267" customHeight="1" spans="1:3">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="3" t="s">
         <v>535</v>
@@ -5343,7 +4757,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:3">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="3" t="s">
         <v>537</v>
@@ -5352,7 +4766,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:3">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="3" t="s">
         <v>539</v>
@@ -5361,7 +4775,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="1:3">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="3" t="s">
         <v>541</v>
@@ -5370,7 +4784,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="271" customHeight="1" spans="1:3">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="3" t="s">
         <v>543</v>
@@ -5379,7 +4793,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="272" customHeight="1" spans="1:3">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="3" t="s">
         <v>545</v>
@@ -5388,7 +4802,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="273" customHeight="1" spans="1:3">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="3" t="s">
         <v>547</v>
@@ -5397,7 +4811,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="274" customHeight="1" spans="1:3">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="3" t="s">
         <v>549</v>
@@ -5406,7 +4820,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="275" customHeight="1" spans="1:3">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="3" t="s">
         <v>551</v>
@@ -5415,7 +4829,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="276" customHeight="1" spans="1:3">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="3" t="s">
         <v>553</v>
@@ -5424,7 +4838,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="277" customHeight="1" spans="1:3">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="3" t="s">
         <v>555</v>
@@ -5433,7 +4847,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="278" customHeight="1" spans="1:3">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="3" t="s">
         <v>557</v>
@@ -5442,7 +4856,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="1:3">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="3" t="s">
         <v>559</v>
@@ -5451,7 +4865,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="280" customHeight="1" spans="1:3">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="3" t="s">
         <v>561</v>
@@ -5460,7 +4874,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="1:3">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="3" t="s">
         <v>563</v>
@@ -5469,7 +4883,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="282" customHeight="1" spans="1:3">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="3" t="s">
         <v>565</v>
@@ -5478,7 +4892,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="283" customHeight="1" spans="1:3">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="3" t="s">
         <v>567</v>
@@ -5487,7 +4901,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="284" customHeight="1" spans="1:3">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="3" t="s">
         <v>569</v>
@@ -5496,7 +4910,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="285" customHeight="1" spans="1:3">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="3" t="s">
         <v>571</v>
@@ -5505,7 +4919,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:3">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="3" t="s">
         <v>573</v>
@@ -5514,7 +4928,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="287" customHeight="1" spans="1:3">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="3" t="s">
         <v>575</v>
@@ -5523,7 +4937,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:3">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="3" t="s">
         <v>577</v>
@@ -5532,7 +4946,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="289" customHeight="1" spans="1:3">
+    <row r="289" spans="1:3" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="3" t="s">
         <v>579</v>
@@ -5541,7 +4955,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="290" customHeight="1" spans="1:3">
+    <row r="290" spans="1:3" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="3" t="s">
         <v>581</v>
@@ -5550,7 +4964,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="291" customHeight="1" spans="1:3">
+    <row r="291" spans="1:3" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="3" t="s">
         <v>583</v>
@@ -5559,7 +4973,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="292" customHeight="1" spans="1:3">
+    <row r="292" spans="1:3" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="3" t="s">
         <v>585</v>
@@ -5568,7 +4982,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="293" customHeight="1" spans="1:3">
+    <row r="293" spans="1:3" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="3" t="s">
         <v>587</v>
@@ -5579,6 +4993,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestCaseData/ManualTestCases.xlsx
+++ b/src/test/resources/TestCaseData/ManualTestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TruvideoWeb_Playwright\src\test\resources\TestCaseData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Documents\GitHub\truvideo-web-app-test-automation\src\test\resources\TestCaseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="596">
   <si>
     <t>Automation Test Name</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Enterprise Dashboard -&gt; Search -&gt; Verify Search for Single Repair Order Message</t>
-  </si>
-  <si>
-    <t>AT-10</t>
   </si>
   <si>
     <t>Enterprise Dashboard -&gt; Create a Technician(Service App) account</t>
@@ -185,11 +182,6 @@
     <t>Enterprise Dashboard- Login Process Valid Credentials</t>
   </si>
   <si>
-    <t>verifyAllElementsOfLoginPage
-loginWithoutEnteringCredentials_showsErrorMessage
-loginWithInvalidCredentials_showErrorMessage</t>
-  </si>
-  <si>
     <t>AT-61</t>
   </si>
   <si>
@@ -1820,6 +1812,15 @@
   </si>
   <si>
     <t>verifyUserStatus</t>
+  </si>
+  <si>
+    <t>WA-5578</t>
+  </si>
+  <si>
+    <t>verifyUserCreation</t>
+  </si>
+  <si>
+    <t>loginWithInvalidCredentials_showErrorMessage</t>
   </si>
 </sst>
 </file>
@@ -2319,8 +2320,8 @@
   </sheetPr>
   <dimension ref="A1:C293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2342,7 +2343,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -2353,7 +2354,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -2373,2622 +2374,2624 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
